--- a/biology/Zoologie/Couinae/Couinae.xlsx
+++ b/biology/Zoologie/Couinae/Couinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Couinae comprend 14 genres d'oiseaux appartenant à la famille des Cuculidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les genres inclus dans cette sous-famille varient selon les auteurs, par exemple le genre Coccyzus n'y figure pas dans classification de Sibley-Ahlquist. Ils portent dans leur nom vernaculaire les termes Coua, Malcoha, Calobate et selon certains auteurs Tacco, Piaye et Coulicou.
 Couinae est le résultat du démembrement (au profit des cuculinae de la sous-famille Phaenicophaeinae.
@@ -543,7 +557,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson :
 Carpococcyx G. R. Gray, 1840
@@ -575,7 +591,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 2.2, 2009) du Congrès ornithologique international, les espèces présentent dans ces genres sont (ordre phylogénique) :
 Carpococcyx radiceus – Calobate radieux
